--- a/excel/fon_si_comp0_eccentricity.xlsx
+++ b/excel/fon_si_comp0_eccentricity.xlsx
@@ -381,7 +381,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Sinisa Vlajic</t>
+          <t>Dusan Savic</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -391,7 +391,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Dusan Savic</t>
+          <t>Ilija Antovic</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -401,7 +401,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Ilija Antovic</t>
+          <t>Sinisa Vlajic</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -411,7 +411,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Milos Milic</t>
+          <t>Sasa Lazarevic</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -421,7 +421,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Sasa Lazarevic</t>
+          <t>Milos Milic</t>
         </is>
       </c>
       <c r="B6" t="n">

--- a/excel/fon_si_comp0_eccentricity.xlsx
+++ b/excel/fon_si_comp0_eccentricity.xlsx
@@ -381,7 +381,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Dusan Savic</t>
+          <t>Sinisa Vlajic</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -391,7 +391,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Ilija Antovic</t>
+          <t>Dusan Savic</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -401,7 +401,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Sinisa Vlajic</t>
+          <t>Sasa Lazarevic</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -411,7 +411,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Sasa Lazarevic</t>
+          <t>Ilija Antovic</t>
         </is>
       </c>
       <c r="B5" t="n">

--- a/excel/fon_si_comp0_eccentricity.xlsx
+++ b/excel/fon_si_comp0_eccentricity.xlsx
@@ -391,7 +391,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Dusan Savic</t>
+          <t>Milos Milic</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -401,7 +401,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Sasa Lazarevic</t>
+          <t>Ilija Antovic</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -411,7 +411,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Ilija Antovic</t>
+          <t>Sasa Lazarevic</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -421,7 +421,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Milos Milic</t>
+          <t>Dusan Savic</t>
         </is>
       </c>
       <c r="B6" t="n">
